--- a/outputdata.xlsx
+++ b/outputdata.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="120" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="446" uniqueCount="58">
   <si>
     <t>ImageFile</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>ColletionTime</t>
+  </si>
+  <si>
+    <t>Var2</t>
   </si>
 </sst>
 </file>
@@ -236,27 +239,27 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="true"/>
-    <col min="2" max="2" width="8" customWidth="true"/>
-    <col min="3" max="3" width="9.42578125" customWidth="true"/>
-    <col min="4" max="4" width="15.5703125" customWidth="true"/>
-    <col min="5" max="5" width="15" customWidth="true"/>
-    <col min="6" max="6" width="9.140625" customWidth="true"/>
-    <col min="7" max="7" width="4.28515625" customWidth="true"/>
-    <col min="8" max="8" width="11.42578125" customWidth="true"/>
-    <col min="9" max="9" width="11.28515625" customWidth="true"/>
-    <col min="10" max="10" width="14.5703125" customWidth="true"/>
-    <col min="11" max="11" width="24.28515625" customWidth="true"/>
-    <col min="12" max="12" width="23.140625" customWidth="true"/>
-    <col min="13" max="13" width="9.140625" customWidth="true"/>
-    <col min="14" max="14" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="9.42578125" customWidth="true"/>
+    <col min="3" max="3" width="15" customWidth="true"/>
+    <col min="4" max="4" width="9.140625" customWidth="true"/>
+    <col min="5" max="5" width="4.28515625" customWidth="true"/>
+    <col min="6" max="6" width="11.42578125" customWidth="true"/>
+    <col min="7" max="7" width="11.28515625" customWidth="true"/>
+    <col min="8" max="8" width="14.5703125" customWidth="true"/>
+    <col min="9" max="9" width="24.28515625" customWidth="true"/>
+    <col min="10" max="10" width="23.140625" customWidth="true"/>
+    <col min="11" max="11" width="9.140625" customWidth="true"/>
+    <col min="12" max="12" width="13.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.42578125" customWidth="true"/>
     <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.42578125" customWidth="true"/>
-    <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="10.85546875" customWidth="true"/>
-    <col min="20" max="20" width="12.7109375" customWidth="true"/>
-    <col min="21" max="21" width="13.42578125" customWidth="true"/>
-    <col min="22" max="22" width="15.140625" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="10.85546875" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="13.42578125" customWidth="true"/>
+    <col min="20" max="20" width="15.140625" customWidth="true"/>
+    <col min="21" max="21" width="14" customWidth="true"/>
+    <col min="22" max="22" width="13.7109375" customWidth="true"/>
     <col min="23" max="23" width="14" customWidth="true"/>
     <col min="24" max="24" width="13.7109375" customWidth="true"/>
   </cols>
@@ -266,67 +269,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W1" s="0" t="s">
         <v>55</v>
@@ -339,64 +342,66 @@
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0"/>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
       <c r="C2" s="0">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D2" s="0">
+        <v>20230908</v>
       </c>
       <c r="E2" s="0">
-        <v>3</v>
-      </c>
-      <c r="F2" s="0">
-        <v>20230908</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F2" s="0"/>
       <c r="G2" s="0">
+        <v>4</v>
+      </c>
+      <c r="H2" s="0">
+        <v>45</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0">
-        <v>4</v>
-      </c>
       <c r="J2" s="0">
-        <v>45</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K2" s="0">
+        <v>4</v>
       </c>
       <c r="L2" s="0">
-        <v>3</v>
+        <v>0.097922894087901627</v>
       </c>
       <c r="M2" s="0">
-        <v>4</v>
+        <v>3620.506668954024</v>
       </c>
       <c r="N2" s="0">
-        <v>0.097922894087901627</v>
+        <v>3608.04</v>
       </c>
       <c r="O2" s="0">
-        <v>3620.506668954024</v>
+        <v>354.53049108852639</v>
       </c>
       <c r="P2" s="0">
-        <v>3608.04</v>
+        <v>1.0146632371336151</v>
       </c>
       <c r="Q2" s="0">
-        <v>354.53049108852639</v>
+        <v>1.00125</v>
       </c>
       <c r="R2" s="0">
-        <v>1.0146632371336151</v>
+        <v>0.14831377963298389</v>
       </c>
       <c r="S2" s="0">
-        <v>1.00125</v>
+        <v>18.246936574845602</v>
       </c>
       <c r="T2" s="0">
-        <v>0.14831377963298389</v>
+        <v>18</v>
       </c>
       <c r="U2" s="0">
-        <v>18.246936574845602</v>
+        <v>4.2081732654625146</v>
       </c>
       <c r="V2" s="0">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="W2" s="0">
         <v>4.2081732654625146</v>
@@ -409,64 +414,66 @@
       <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0"/>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
       <c r="C3" s="0">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="0">
+        <v>20230908</v>
       </c>
       <c r="E3" s="0">
-        <v>3</v>
-      </c>
-      <c r="F3" s="0">
-        <v>20230908</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F3" s="0"/>
       <c r="G3" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3" s="0">
+        <v>45</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0">
-        <v>4</v>
-      </c>
       <c r="J3" s="0">
-        <v>45</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="K3" s="0">
+        <v>4</v>
       </c>
       <c r="L3" s="0">
-        <v>3</v>
+        <v>0.079107789873444578</v>
       </c>
       <c r="M3" s="0">
-        <v>4</v>
+        <v>3619.8922095872922</v>
       </c>
       <c r="N3" s="0">
-        <v>0.079107789873444578</v>
+        <v>3611.3099999999999</v>
       </c>
       <c r="O3" s="0">
-        <v>3619.8922095872922</v>
+        <v>286.36167228055052</v>
       </c>
       <c r="P3" s="0">
-        <v>3611.3099999999999</v>
+        <v>1.0290492744828927</v>
       </c>
       <c r="Q3" s="0">
-        <v>286.36167228055052</v>
+        <v>1.0231600000000001</v>
       </c>
       <c r="R3" s="0">
-        <v>1.0290492744828927</v>
+        <v>0.14570335604449058</v>
       </c>
       <c r="S3" s="0">
-        <v>1.0231600000000001</v>
+        <v>17.903930987158123</v>
       </c>
       <c r="T3" s="0">
-        <v>0.14570335604449058</v>
+        <v>18</v>
       </c>
       <c r="U3" s="0">
-        <v>17.903930987158123</v>
+        <v>4.2289832408875032</v>
       </c>
       <c r="V3" s="0">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="W3" s="0">
         <v>4.2289832408875032</v>
@@ -479,64 +486,66 @@
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0"/>
+      <c r="B4" s="0">
+        <v>0.02</v>
+      </c>
       <c r="C4" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D4" s="0">
+        <v>20230908</v>
       </c>
       <c r="E4" s="0">
-        <v>3</v>
-      </c>
-      <c r="F4" s="0">
-        <v>20230908</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F4" s="0"/>
       <c r="G4" s="0">
-        <v>1</v>
-      </c>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H4" s="0">
+        <v>45</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="J4" s="0">
-        <v>45</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="K4" s="0">
+        <v>4</v>
       </c>
       <c r="L4" s="0">
-        <v>3</v>
+        <v>0.071050423789744493</v>
       </c>
       <c r="M4" s="0">
-        <v>4</v>
+        <v>3246.3774453484939</v>
       </c>
       <c r="N4" s="0">
-        <v>0.071050423789744493</v>
+        <v>3250.9400000000001</v>
       </c>
       <c r="O4" s="0">
-        <v>3246.3774453484939</v>
+        <v>230.65649327347859</v>
       </c>
       <c r="P4" s="0">
-        <v>3250.9400000000001</v>
+        <v>1.0442682530144107</v>
       </c>
       <c r="Q4" s="0">
-        <v>230.65649327347859</v>
+        <v>1.0351300000000001</v>
       </c>
       <c r="R4" s="0">
-        <v>1.0442682530144107</v>
+        <v>0.14653555753986533</v>
       </c>
       <c r="S4" s="0">
-        <v>1.0351300000000001</v>
+        <v>20.860405842564454</v>
       </c>
       <c r="T4" s="0">
-        <v>0.14653555753986533</v>
+        <v>21</v>
       </c>
       <c r="U4" s="0">
-        <v>20.860405842564454</v>
+        <v>4.5145431436702124</v>
       </c>
       <c r="V4" s="0">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="W4" s="0">
         <v>4.5145431436702124</v>
@@ -549,64 +558,66 @@
       <c r="A5" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0"/>
+      <c r="B5" s="0">
+        <v>0.02</v>
+      </c>
       <c r="C5" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D5" s="0">
+        <v>20230908</v>
       </c>
       <c r="E5" s="0">
-        <v>3</v>
-      </c>
-      <c r="F5" s="0">
-        <v>20230908</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F5" s="0"/>
       <c r="G5" s="0">
-        <v>2</v>
-      </c>
-      <c r="H5" s="0"/>
-      <c r="I5" s="0">
+        <v>4</v>
+      </c>
+      <c r="H5" s="0">
+        <v>45</v>
+      </c>
+      <c r="I5" s="0" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="0">
-        <v>45</v>
-      </c>
-      <c r="K5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="0">
         <v>4</v>
       </c>
       <c r="L5" s="0">
-        <v>3</v>
+        <v>0.06396059261531617</v>
       </c>
       <c r="M5" s="0">
-        <v>4</v>
+        <v>3233.595667091462</v>
       </c>
       <c r="N5" s="0">
-        <v>0.06396059261531617</v>
+        <v>3232.0300000000002</v>
       </c>
       <c r="O5" s="0">
-        <v>3233.595667091462</v>
+        <v>206.82269514548852</v>
       </c>
       <c r="P5" s="0">
-        <v>3232.0300000000002</v>
+        <v>1.0564903563376133</v>
       </c>
       <c r="Q5" s="0">
-        <v>206.82269514548852</v>
+        <v>1.0516399999999999</v>
       </c>
       <c r="R5" s="0">
-        <v>1.0564903563376133</v>
+        <v>0.14169919740962247</v>
       </c>
       <c r="S5" s="0">
-        <v>1.0516399999999999</v>
+        <v>21.865601411626312</v>
       </c>
       <c r="T5" s="0">
-        <v>0.14169919740962247</v>
+        <v>22</v>
       </c>
       <c r="U5" s="0">
-        <v>21.865601411626312</v>
+        <v>4.6570496796953922</v>
       </c>
       <c r="V5" s="0">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="W5" s="0">
         <v>4.6570496796953922</v>
@@ -619,64 +630,66 @@
       <c r="A6" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0"/>
+      <c r="B6" s="0">
+        <v>0.029999999999999999</v>
+      </c>
       <c r="C6" s="0">
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D6" s="0">
+        <v>20230908</v>
       </c>
       <c r="E6" s="0">
-        <v>3</v>
-      </c>
-      <c r="F6" s="0">
-        <v>20230908</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F6" s="0"/>
       <c r="G6" s="0">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0"/>
-      <c r="I6" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H6" s="0">
+        <v>45</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="J6" s="0">
-        <v>45</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="K6" s="0">
+        <v>4</v>
       </c>
       <c r="L6" s="0">
-        <v>3</v>
+        <v>0.055603673759726635</v>
       </c>
       <c r="M6" s="0">
-        <v>4</v>
+        <v>2984.804571120475</v>
       </c>
       <c r="N6" s="0">
-        <v>0.055603673759726635</v>
+        <v>2982.5100000000002</v>
       </c>
       <c r="O6" s="0">
-        <v>2984.804571120475</v>
+        <v>165.96609960912366</v>
       </c>
       <c r="P6" s="0">
-        <v>2982.5100000000002</v>
+        <v>1.0774061763552605</v>
       </c>
       <c r="Q6" s="0">
-        <v>165.96609960912366</v>
+        <v>1.0669299999999999</v>
       </c>
       <c r="R6" s="0">
-        <v>1.0774061763552605</v>
+        <v>0.14907618746968557</v>
       </c>
       <c r="S6" s="0">
-        <v>1.0669299999999999</v>
+        <v>22.59229487305166</v>
       </c>
       <c r="T6" s="0">
-        <v>0.14907618746968557</v>
+        <v>22</v>
       </c>
       <c r="U6" s="0">
-        <v>22.59229487305166</v>
+        <v>4.7568459889356314</v>
       </c>
       <c r="V6" s="0">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="W6" s="0">
         <v>4.7568459889356314</v>
@@ -689,64 +702,66 @@
       <c r="A7" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0"/>
+      <c r="B7" s="0">
+        <v>0.029999999999999999</v>
+      </c>
       <c r="C7" s="0">
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D7" s="0">
+        <v>20230908</v>
       </c>
       <c r="E7" s="0">
-        <v>3</v>
-      </c>
-      <c r="F7" s="0">
-        <v>20230908</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F7" s="0"/>
       <c r="G7" s="0">
-        <v>2</v>
-      </c>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H7" s="0">
+        <v>45</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="J7" s="0">
-        <v>45</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="K7" s="0">
+        <v>4</v>
       </c>
       <c r="L7" s="0">
-        <v>3</v>
+        <v>0.060667965487499503</v>
       </c>
       <c r="M7" s="0">
-        <v>4</v>
+        <v>3002.41941182237</v>
       </c>
       <c r="N7" s="0">
-        <v>0.060667965487499503</v>
+        <v>2996.1999999999998</v>
       </c>
       <c r="O7" s="0">
-        <v>3002.41941182237</v>
+        <v>182.1506772554381</v>
       </c>
       <c r="P7" s="0">
-        <v>2996.1999999999998</v>
+        <v>1.0553193405548478</v>
       </c>
       <c r="Q7" s="0">
-        <v>182.1506772554381</v>
+        <v>1.04498</v>
       </c>
       <c r="R7" s="0">
-        <v>1.0553193405548478</v>
+        <v>0.15147402474692176</v>
       </c>
       <c r="S7" s="0">
-        <v>1.04498</v>
+        <v>23.839819625526911</v>
       </c>
       <c r="T7" s="0">
-        <v>0.15147402474692176</v>
+        <v>24</v>
       </c>
       <c r="U7" s="0">
-        <v>23.839819625526911</v>
+        <v>4.8267256922926842</v>
       </c>
       <c r="V7" s="0">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="W7" s="0">
         <v>4.8267256922926842</v>
@@ -759,64 +774,66 @@
       <c r="A8" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0"/>
+      <c r="B8" s="0">
+        <v>0.040000000000000001</v>
+      </c>
       <c r="C8" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D8" s="0">
+        <v>20230908</v>
       </c>
       <c r="E8" s="0">
-        <v>3</v>
-      </c>
-      <c r="F8" s="0">
-        <v>20230908</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F8" s="0"/>
       <c r="G8" s="0">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H8" s="0">
+        <v>45</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="J8" s="0">
-        <v>45</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="K8" s="0">
+        <v>4</v>
       </c>
       <c r="L8" s="0">
-        <v>3</v>
+        <v>0.059568870418463447</v>
       </c>
       <c r="M8" s="0">
-        <v>4</v>
+        <v>2836.9322272326235</v>
       </c>
       <c r="N8" s="0">
-        <v>0.059568870418463447</v>
+        <v>2827.6900000000001</v>
       </c>
       <c r="O8" s="0">
-        <v>2836.9322272326235</v>
+        <v>168.99284822998305</v>
       </c>
       <c r="P8" s="0">
-        <v>2827.6900000000001</v>
+        <v>1.0452640007842378</v>
       </c>
       <c r="Q8" s="0">
-        <v>168.99284822998305</v>
+        <v>1.03565</v>
       </c>
       <c r="R8" s="0">
-        <v>1.0452640007842378</v>
+        <v>0.14428331104730344</v>
       </c>
       <c r="S8" s="0">
-        <v>1.03565</v>
+        <v>24.166258209979414</v>
       </c>
       <c r="T8" s="0">
-        <v>0.14428331104730344</v>
+        <v>24</v>
       </c>
       <c r="U8" s="0">
-        <v>24.166258209979414</v>
+        <v>4.8640943988747161</v>
       </c>
       <c r="V8" s="0">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="W8" s="0">
         <v>4.8640943988747161</v>
@@ -829,64 +846,66 @@
       <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0"/>
+      <c r="B9" s="0">
+        <v>0.040000000000000001</v>
+      </c>
       <c r="C9" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D9" s="0">
+        <v>20230908</v>
       </c>
       <c r="E9" s="0">
-        <v>3</v>
-      </c>
-      <c r="F9" s="0">
-        <v>20230908</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F9" s="0"/>
       <c r="G9" s="0">
-        <v>2</v>
-      </c>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H9" s="0">
+        <v>45</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="J9" s="0">
-        <v>45</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="K9" s="0">
+        <v>4</v>
       </c>
       <c r="L9" s="0">
-        <v>3</v>
+        <v>0.079392580960984088</v>
       </c>
       <c r="M9" s="0">
-        <v>4</v>
+        <v>2851.0339652975172</v>
       </c>
       <c r="N9" s="0">
-        <v>0.079392580960984088</v>
+        <v>2842.0100000000002</v>
       </c>
       <c r="O9" s="0">
-        <v>2851.0339652975172</v>
+        <v>226.35094491239863</v>
       </c>
       <c r="P9" s="0">
-        <v>2842.0100000000002</v>
+        <v>1.0347451865503388</v>
       </c>
       <c r="Q9" s="0">
-        <v>226.35094491239863</v>
+        <v>1.02667</v>
       </c>
       <c r="R9" s="0">
-        <v>1.0347451865503388</v>
+        <v>0.14369417442472712</v>
       </c>
       <c r="S9" s="0">
-        <v>1.02667</v>
+        <v>20.583080090187238</v>
       </c>
       <c r="T9" s="0">
-        <v>0.14369417442472712</v>
+        <v>20</v>
       </c>
       <c r="U9" s="0">
-        <v>20.583080090187238</v>
+        <v>4.5613233333463734</v>
       </c>
       <c r="V9" s="0">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="W9" s="0">
         <v>4.5613233333463734</v>
@@ -899,64 +918,66 @@
       <c r="A10" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0"/>
+      <c r="B10" s="0">
+        <v>0.050000000000000003</v>
+      </c>
       <c r="C10" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D10" s="0">
+        <v>20230908</v>
       </c>
       <c r="E10" s="0">
-        <v>3</v>
-      </c>
-      <c r="F10" s="0">
-        <v>20230908</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F10" s="0"/>
       <c r="G10" s="0">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H10" s="0">
+        <v>45</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="J10" s="0">
-        <v>45</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="K10" s="0">
+        <v>4</v>
       </c>
       <c r="L10" s="0">
-        <v>3</v>
+        <v>0.055761640990783408</v>
       </c>
       <c r="M10" s="0">
-        <v>4</v>
+        <v>2589.3801901774314</v>
       </c>
       <c r="N10" s="0">
-        <v>0.055761640990783408</v>
+        <v>2586.4200000000001</v>
       </c>
       <c r="O10" s="0">
-        <v>2589.3801901774314</v>
+        <v>144.38808855332039</v>
       </c>
       <c r="P10" s="0">
-        <v>2586.4200000000001</v>
+        <v>1.0836375164199592</v>
       </c>
       <c r="Q10" s="0">
-        <v>144.38808855332039</v>
+        <v>1.07534</v>
       </c>
       <c r="R10" s="0">
-        <v>1.0836375164199592</v>
+        <v>0.1624343464818746</v>
       </c>
       <c r="S10" s="0">
-        <v>1.07534</v>
+        <v>19.552788942260563</v>
       </c>
       <c r="T10" s="0">
-        <v>0.1624343464818746</v>
+        <v>19</v>
       </c>
       <c r="U10" s="0">
-        <v>19.552788942260563</v>
+        <v>4.3788016889147192</v>
       </c>
       <c r="V10" s="0">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="W10" s="0">
         <v>4.3788016889147192</v>
@@ -969,64 +990,66 @@
       <c r="A11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="0"/>
+      <c r="B11" s="0">
+        <v>0.050000000000000003</v>
+      </c>
       <c r="C11" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D11" s="0">
+        <v>20230908</v>
       </c>
       <c r="E11" s="0">
-        <v>3</v>
-      </c>
-      <c r="F11" s="0">
-        <v>20230908</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F11" s="0"/>
       <c r="G11" s="0">
-        <v>2</v>
-      </c>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H11" s="0">
+        <v>45</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J11" s="0">
-        <v>45</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="K11" s="0">
+        <v>4</v>
       </c>
       <c r="L11" s="0">
-        <v>3</v>
+        <v>0.051957033940385637</v>
       </c>
       <c r="M11" s="0">
-        <v>4</v>
+        <v>2575.758299186351</v>
       </c>
       <c r="N11" s="0">
-        <v>0.051957033940385637</v>
+        <v>2574.9499999999998</v>
       </c>
       <c r="O11" s="0">
-        <v>2575.758299186351</v>
+        <v>133.82876137305522</v>
       </c>
       <c r="P11" s="0">
-        <v>2574.9499999999998</v>
+        <v>1.0917504551514559</v>
       </c>
       <c r="Q11" s="0">
-        <v>133.82876137305522</v>
+        <v>1.0813299999999999</v>
       </c>
       <c r="R11" s="0">
-        <v>1.0917504551514559</v>
+        <v>0.15505026312374176</v>
       </c>
       <c r="S11" s="0">
-        <v>1.0813299999999999</v>
+        <v>22.703264385844523</v>
       </c>
       <c r="T11" s="0">
-        <v>0.15505026312374176</v>
+        <v>23</v>
       </c>
       <c r="U11" s="0">
-        <v>22.703264385844523</v>
+        <v>4.7432178753804504</v>
       </c>
       <c r="V11" s="0">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="W11" s="0">
         <v>4.7432178753804504</v>
@@ -1039,64 +1062,66 @@
       <c r="A12" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="0"/>
+      <c r="B12" s="0">
+        <v>0.059999999999999998</v>
+      </c>
       <c r="C12" s="0">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D12" s="0">
+        <v>20230908</v>
       </c>
       <c r="E12" s="0">
-        <v>3</v>
-      </c>
-      <c r="F12" s="0">
-        <v>20230908</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F12" s="0"/>
       <c r="G12" s="0">
-        <v>1</v>
-      </c>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H12" s="0">
+        <v>45</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="J12" s="0">
-        <v>45</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="K12" s="0">
+        <v>4</v>
       </c>
       <c r="L12" s="0">
-        <v>3</v>
+        <v>0.061545058755467029</v>
       </c>
       <c r="M12" s="0">
-        <v>4</v>
+        <v>2459.2820743064412</v>
       </c>
       <c r="N12" s="0">
-        <v>0.061545058755467029</v>
+        <v>2455.6700000000001</v>
       </c>
       <c r="O12" s="0">
-        <v>2459.2820743064412</v>
+        <v>151.35665975945676</v>
       </c>
       <c r="P12" s="0">
-        <v>2455.6700000000001</v>
+        <v>1.0590105685717082</v>
       </c>
       <c r="Q12" s="0">
-        <v>151.35665975945676</v>
+        <v>1.05145</v>
       </c>
       <c r="R12" s="0">
-        <v>1.0590105685717082</v>
+        <v>0.14488811609876995</v>
       </c>
       <c r="S12" s="0">
-        <v>1.05145</v>
+        <v>22.436623860405842</v>
       </c>
       <c r="T12" s="0">
-        <v>0.14488811609876995</v>
+        <v>22</v>
       </c>
       <c r="U12" s="0">
-        <v>22.436623860405842</v>
+        <v>4.6892166380959042</v>
       </c>
       <c r="V12" s="0">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="W12" s="0">
         <v>4.6892166380959042</v>
@@ -1109,64 +1134,66 @@
       <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0"/>
+      <c r="B13" s="0">
+        <v>0.059999999999999998</v>
+      </c>
       <c r="C13" s="0">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D13" s="0">
+        <v>20230908</v>
       </c>
       <c r="E13" s="0">
-        <v>3</v>
-      </c>
-      <c r="F13" s="0">
-        <v>20230908</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F13" s="0"/>
       <c r="G13" s="0">
-        <v>2</v>
-      </c>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H13" s="0">
+        <v>45</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="J13" s="0">
-        <v>45</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="K13" s="0">
+        <v>4</v>
       </c>
       <c r="L13" s="0">
-        <v>3</v>
+        <v>0.061764823642866416</v>
       </c>
       <c r="M13" s="0">
-        <v>4</v>
+        <v>2468.8286932653682</v>
       </c>
       <c r="N13" s="0">
-        <v>0.061764823642866416</v>
+        <v>2461.4000000000001</v>
       </c>
       <c r="O13" s="0">
-        <v>2468.8286932653682</v>
+        <v>152.48676884398381</v>
       </c>
       <c r="P13" s="0">
-        <v>2461.4000000000001</v>
+        <v>1.0608858232526228</v>
       </c>
       <c r="Q13" s="0">
-        <v>152.48676884398381</v>
+        <v>1.0531699999999999</v>
       </c>
       <c r="R13" s="0">
-        <v>1.0608858232526228</v>
+        <v>0.14908767299502265</v>
       </c>
       <c r="S13" s="0">
-        <v>1.0531699999999999</v>
+        <v>22.827369865699442</v>
       </c>
       <c r="T13" s="0">
-        <v>0.14908767299502265</v>
+        <v>23</v>
       </c>
       <c r="U13" s="0">
-        <v>22.827369865699442</v>
+        <v>4.7874939034774435</v>
       </c>
       <c r="V13" s="0">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="W13" s="0">
         <v>4.7874939034774435</v>
@@ -1179,64 +1206,66 @@
       <c r="A14" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="0"/>
+      <c r="B14" s="0">
+        <v>0.070000000000000007</v>
+      </c>
       <c r="C14" s="0">
-        <v>0.070000000000000007</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D14" s="0">
+        <v>20230908</v>
       </c>
       <c r="E14" s="0">
-        <v>3</v>
-      </c>
-      <c r="F14" s="0">
-        <v>20230908</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F14" s="0"/>
       <c r="G14" s="0">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H14" s="0">
+        <v>45</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="J14" s="0">
-        <v>45</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="K14" s="0">
+        <v>4</v>
       </c>
       <c r="L14" s="0">
-        <v>3</v>
+        <v>0.057324984990836346</v>
       </c>
       <c r="M14" s="0">
-        <v>4</v>
+        <v>2397.0878590334287</v>
       </c>
       <c r="N14" s="0">
-        <v>0.057324984990836346</v>
+        <v>2396.3899999999999</v>
       </c>
       <c r="O14" s="0">
-        <v>2397.0878590334287</v>
+        <v>137.41302554080733</v>
       </c>
       <c r="P14" s="0">
-        <v>2396.3899999999999</v>
+        <v>1.0702383692775204</v>
       </c>
       <c r="Q14" s="0">
-        <v>137.41302554080733</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="R14" s="0">
-        <v>1.0702383692775204</v>
+        <v>0.1588449167485961</v>
       </c>
       <c r="S14" s="0">
-        <v>1.0569999999999999</v>
+        <v>24.440348985393587</v>
       </c>
       <c r="T14" s="0">
-        <v>0.1588449167485961</v>
+        <v>24</v>
       </c>
       <c r="U14" s="0">
-        <v>24.440348985393587</v>
+        <v>4.9217599310992082</v>
       </c>
       <c r="V14" s="0">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="W14" s="0">
         <v>4.9217599310992082</v>
@@ -1249,64 +1278,66 @@
       <c r="A15" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="0"/>
+      <c r="B15" s="0">
+        <v>0.070000000000000007</v>
+      </c>
       <c r="C15" s="0">
-        <v>0.070000000000000007</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D15" s="0">
+        <v>20230908</v>
       </c>
       <c r="E15" s="0">
-        <v>3</v>
-      </c>
-      <c r="F15" s="0">
-        <v>20230908</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F15" s="0"/>
       <c r="G15" s="0">
-        <v>2</v>
-      </c>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H15" s="0">
+        <v>45</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="J15" s="0">
-        <v>45</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="K15" s="0">
+        <v>4</v>
       </c>
       <c r="L15" s="0">
-        <v>3</v>
+        <v>0.059536610091721266</v>
       </c>
       <c r="M15" s="0">
-        <v>4</v>
+        <v>2376.938717772769</v>
       </c>
       <c r="N15" s="0">
-        <v>0.059536610091721266</v>
+        <v>2367.8499999999999</v>
       </c>
       <c r="O15" s="0">
-        <v>2376.938717772769</v>
+        <v>141.51487365195325</v>
       </c>
       <c r="P15" s="0">
-        <v>2367.8499999999999</v>
+        <v>1.0568841035192624</v>
       </c>
       <c r="Q15" s="0">
-        <v>141.51487365195325</v>
+        <v>1.05165</v>
       </c>
       <c r="R15" s="0">
-        <v>1.0568841035192624</v>
+        <v>0.14791735082225413</v>
       </c>
       <c r="S15" s="0">
-        <v>1.05165</v>
+        <v>23.404568179590235</v>
       </c>
       <c r="T15" s="0">
-        <v>0.14791735082225413</v>
+        <v>23</v>
       </c>
       <c r="U15" s="0">
-        <v>23.404568179590235</v>
+        <v>4.7993192646665221</v>
       </c>
       <c r="V15" s="0">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="W15" s="0">
         <v>4.7993192646665221</v>
@@ -1319,64 +1350,66 @@
       <c r="A16" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="0"/>
+      <c r="B16" s="0">
+        <v>0.080000000000000002</v>
+      </c>
       <c r="C16" s="0">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D16" s="0">
+        <v>20230908</v>
       </c>
       <c r="E16" s="0">
-        <v>3</v>
-      </c>
-      <c r="F16" s="0">
-        <v>20230908</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F16" s="0"/>
       <c r="G16" s="0">
-        <v>1</v>
-      </c>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H16" s="0">
+        <v>45</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="J16" s="0">
-        <v>45</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="K16" s="0">
+        <v>4</v>
       </c>
       <c r="L16" s="0">
-        <v>3</v>
+        <v>0.053335633459807824</v>
       </c>
       <c r="M16" s="0">
-        <v>4</v>
+        <v>2275.1190236251341</v>
       </c>
       <c r="N16" s="0">
-        <v>0.053335633459807824</v>
+        <v>2271.4200000000001</v>
       </c>
       <c r="O16" s="0">
-        <v>2275.1190236251341</v>
+        <v>121.34491432150601</v>
       </c>
       <c r="P16" s="0">
-        <v>2271.4200000000001</v>
+        <v>1.047583401235173</v>
       </c>
       <c r="Q16" s="0">
-        <v>121.34491432150601</v>
+        <v>1.0364199999999999</v>
       </c>
       <c r="R16" s="0">
-        <v>1.047583401235173</v>
+        <v>0.14817991417366388</v>
       </c>
       <c r="S16" s="0">
-        <v>1.0364199999999999</v>
+        <v>21.841878247230664</v>
       </c>
       <c r="T16" s="0">
-        <v>0.14817991417366388</v>
+        <v>22</v>
       </c>
       <c r="U16" s="0">
-        <v>21.841878247230664</v>
+        <v>4.6799525472370549</v>
       </c>
       <c r="V16" s="0">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="W16" s="0">
         <v>4.6799525472370549</v>
@@ -1389,64 +1422,66 @@
       <c r="A17" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="0"/>
+      <c r="B17" s="0">
+        <v>0.080000000000000002</v>
+      </c>
       <c r="C17" s="0">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D17" s="0">
+        <v>20230908</v>
       </c>
       <c r="E17" s="0">
-        <v>3</v>
-      </c>
-      <c r="F17" s="0">
-        <v>20230908</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F17" s="0"/>
       <c r="G17" s="0">
-        <v>2</v>
-      </c>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H17" s="0">
+        <v>45</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="J17" s="0">
-        <v>45</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="K17" s="0">
+        <v>4</v>
       </c>
       <c r="L17" s="0">
-        <v>3</v>
+        <v>0.053109018372756223</v>
       </c>
       <c r="M17" s="0">
-        <v>4</v>
+        <v>2278.2650769532406</v>
       </c>
       <c r="N17" s="0">
-        <v>0.053109018372756223</v>
+        <v>2273.4899999999998</v>
       </c>
       <c r="O17" s="0">
-        <v>2278.2650769532406</v>
+        <v>120.99642182991853</v>
       </c>
       <c r="P17" s="0">
-        <v>2273.4899999999998</v>
+        <v>1.0763508862856592</v>
       </c>
       <c r="Q17" s="0">
-        <v>120.99642182991853</v>
+        <v>1.06873</v>
       </c>
       <c r="R17" s="0">
-        <v>1.0763508862856592</v>
+        <v>0.15984741039035807</v>
       </c>
       <c r="S17" s="0">
-        <v>1.06873</v>
+        <v>22.155965101460641</v>
       </c>
       <c r="T17" s="0">
-        <v>0.15984741039035807</v>
+        <v>22</v>
       </c>
       <c r="U17" s="0">
-        <v>22.155965101460641</v>
+        <v>4.6560824600580597</v>
       </c>
       <c r="V17" s="0">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="W17" s="0">
         <v>4.6560824600580597</v>
@@ -1459,64 +1494,66 @@
       <c r="A18" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="0"/>
+      <c r="B18" s="0">
+        <v>0</v>
+      </c>
       <c r="C18" s="0">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D18" s="0">
+        <v>20240103</v>
       </c>
       <c r="E18" s="0">
-        <v>3</v>
-      </c>
-      <c r="F18" s="0">
-        <v>20240103</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F18" s="0"/>
       <c r="G18" s="0">
-        <v>1</v>
-      </c>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H18" s="0">
+        <v>45</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="J18" s="0">
-        <v>45</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="K18" s="0">
+        <v>4</v>
       </c>
       <c r="L18" s="0">
-        <v>3</v>
+        <v>0.064717455442008423</v>
       </c>
       <c r="M18" s="0">
-        <v>4</v>
+        <v>3695.6111812567415</v>
       </c>
       <c r="N18" s="0">
-        <v>0.064717455442008423</v>
+        <v>3698.3099999999999</v>
       </c>
       <c r="O18" s="0">
-        <v>3695.6111812567415</v>
+        <v>239.17055195397128</v>
       </c>
       <c r="P18" s="0">
-        <v>3698.3099999999999</v>
+        <v>1.0488283607489468</v>
       </c>
       <c r="Q18" s="0">
-        <v>239.17055195397128</v>
+        <v>1.03887</v>
       </c>
       <c r="R18" s="0">
-        <v>1.0488283607489468</v>
+        <v>0.14295860633894406</v>
       </c>
       <c r="S18" s="0">
-        <v>1.03887</v>
+        <v>20.939319674541711</v>
       </c>
       <c r="T18" s="0">
-        <v>0.14295860633894406</v>
+        <v>21</v>
       </c>
       <c r="U18" s="0">
-        <v>20.939319674541711</v>
+        <v>4.5613835069960942</v>
       </c>
       <c r="V18" s="0">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="W18" s="0">
         <v>4.5613835069960942</v>
@@ -1529,64 +1566,66 @@
       <c r="A19" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="0"/>
+      <c r="B19" s="0">
+        <v>0</v>
+      </c>
       <c r="C19" s="0">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D19" s="0">
+        <v>20240103</v>
       </c>
       <c r="E19" s="0">
-        <v>3</v>
-      </c>
-      <c r="F19" s="0">
-        <v>20240103</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F19" s="0"/>
       <c r="G19" s="0">
-        <v>2</v>
-      </c>
-      <c r="H19" s="0"/>
-      <c r="I19" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H19" s="0">
+        <v>45</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="J19" s="0">
-        <v>45</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="K19" s="0">
+        <v>4</v>
       </c>
       <c r="L19" s="0">
-        <v>3</v>
+        <v>0.073024855312915915</v>
       </c>
       <c r="M19" s="0">
-        <v>4</v>
+        <v>3704.8336065091671</v>
       </c>
       <c r="N19" s="0">
-        <v>0.073024855312915915</v>
+        <v>3705.5</v>
       </c>
       <c r="O19" s="0">
-        <v>3704.8336065091671</v>
+        <v>270.54493807376036</v>
       </c>
       <c r="P19" s="0">
-        <v>3705.5</v>
+        <v>1.0672076923831004</v>
       </c>
       <c r="Q19" s="0">
-        <v>270.54493807376036</v>
+        <v>1.0604199999999999</v>
       </c>
       <c r="R19" s="0">
-        <v>1.0672076923831004</v>
+        <v>0.14289947952369389</v>
       </c>
       <c r="S19" s="0">
-        <v>1.0604199999999999</v>
+        <v>24.836682678168806</v>
       </c>
       <c r="T19" s="0">
-        <v>0.14289947952369389</v>
+        <v>25</v>
       </c>
       <c r="U19" s="0">
-        <v>24.836682678168806</v>
+        <v>4.9865890080769235</v>
       </c>
       <c r="V19" s="0">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="W19" s="0">
         <v>4.9865890080769235</v>
@@ -1599,64 +1638,66 @@
       <c r="A20" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="0"/>
+      <c r="B20" s="0">
+        <v>0.02</v>
+      </c>
       <c r="C20" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D20" s="0">
+        <v>20240103</v>
       </c>
       <c r="E20" s="0">
-        <v>3</v>
-      </c>
-      <c r="F20" s="0">
-        <v>20240103</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F20" s="0"/>
       <c r="G20" s="0">
-        <v>1</v>
-      </c>
-      <c r="H20" s="0"/>
-      <c r="I20" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H20" s="0">
+        <v>45</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="J20" s="0">
-        <v>45</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="K20" s="0">
+        <v>4</v>
       </c>
       <c r="L20" s="0">
-        <v>3</v>
+        <v>0.055798238587640707</v>
       </c>
       <c r="M20" s="0">
-        <v>4</v>
+        <v>3267.7482433094824</v>
       </c>
       <c r="N20" s="0">
-        <v>0.055798238587640707</v>
+        <v>3261.6199999999999</v>
       </c>
       <c r="O20" s="0">
-        <v>3267.7482433094824</v>
+        <v>182.33459612452629</v>
       </c>
       <c r="P20" s="0">
-        <v>3261.6199999999999</v>
+        <v>1.0364739433388888</v>
       </c>
       <c r="Q20" s="0">
-        <v>182.33459612452629</v>
+        <v>1.02911</v>
       </c>
       <c r="R20" s="0">
-        <v>1.0364739433388888</v>
+        <v>0.14208720007164594</v>
       </c>
       <c r="S20" s="0">
-        <v>1.02911</v>
+        <v>23.346730712675228</v>
       </c>
       <c r="T20" s="0">
-        <v>0.14208720007164594</v>
+        <v>23</v>
       </c>
       <c r="U20" s="0">
-        <v>23.346730712675228</v>
+        <v>4.8796959631789996</v>
       </c>
       <c r="V20" s="0">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="W20" s="0">
         <v>4.8796959631789996</v>
@@ -1669,64 +1710,66 @@
       <c r="A21" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="0"/>
+      <c r="B21" s="0">
+        <v>0.02</v>
+      </c>
       <c r="C21" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D21" s="0">
+        <v>20240103</v>
       </c>
       <c r="E21" s="0">
-        <v>3</v>
-      </c>
-      <c r="F21" s="0">
-        <v>20240103</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F21" s="0"/>
       <c r="G21" s="0">
-        <v>2</v>
-      </c>
-      <c r="H21" s="0"/>
-      <c r="I21" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H21" s="0">
+        <v>45</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="J21" s="0">
-        <v>45</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="K21" s="0">
+        <v>4</v>
       </c>
       <c r="L21" s="0">
-        <v>3</v>
+        <v>0.063932505535867504</v>
       </c>
       <c r="M21" s="0">
-        <v>4</v>
+        <v>3290.9848838349199</v>
       </c>
       <c r="N21" s="0">
-        <v>0.063932505535867504</v>
+        <v>3293.6999999999998</v>
       </c>
       <c r="O21" s="0">
-        <v>3290.9848838349199</v>
+        <v>210.40090930423227</v>
       </c>
       <c r="P21" s="0">
-        <v>3293.6999999999998</v>
+        <v>1.0534848758945206</v>
       </c>
       <c r="Q21" s="0">
-        <v>210.40090930423227</v>
+        <v>1.0445500000000001</v>
       </c>
       <c r="R21" s="0">
-        <v>1.0534848758945206</v>
+        <v>0.14753468224117747</v>
       </c>
       <c r="S21" s="0">
-        <v>1.0445500000000001</v>
+        <v>22.186060190177432</v>
       </c>
       <c r="T21" s="0">
-        <v>0.14753468224117747</v>
+        <v>22</v>
       </c>
       <c r="U21" s="0">
-        <v>22.186060190177432</v>
+        <v>4.7616612045962787</v>
       </c>
       <c r="V21" s="0">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="W21" s="0">
         <v>4.7616612045962787</v>
@@ -1739,64 +1782,66 @@
       <c r="A22" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="0"/>
+      <c r="B22" s="0">
+        <v>0.050000000000000003</v>
+      </c>
       <c r="C22" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D22" s="0">
+        <v>20240103</v>
       </c>
       <c r="E22" s="0">
-        <v>3</v>
-      </c>
-      <c r="F22" s="0">
-        <v>20240103</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F22" s="0"/>
       <c r="G22" s="0">
-        <v>1</v>
-      </c>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H22" s="0">
+        <v>45</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="J22" s="0">
-        <v>45</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="K22" s="0">
+        <v>4</v>
       </c>
       <c r="L22" s="0">
-        <v>3</v>
+        <v>0.059985795935967319</v>
       </c>
       <c r="M22" s="0">
-        <v>4</v>
+        <v>2786.7422733065405</v>
       </c>
       <c r="N22" s="0">
-        <v>0.059985795935967319</v>
+        <v>2779.7199999999998</v>
       </c>
       <c r="O22" s="0">
-        <v>2786.7422733065405</v>
+        <v>167.16495333269981</v>
       </c>
       <c r="P22" s="0">
-        <v>2779.7199999999998</v>
+        <v>1.0382865588667778</v>
       </c>
       <c r="Q22" s="0">
-        <v>167.16495333269981</v>
+        <v>1.0283899999999999</v>
       </c>
       <c r="R22" s="0">
-        <v>1.0382865588667778</v>
+        <v>0.14803635276179231</v>
       </c>
       <c r="S22" s="0">
-        <v>1.0283899999999999</v>
+        <v>23.300264679933338</v>
       </c>
       <c r="T22" s="0">
-        <v>0.14803635276179231</v>
+        <v>23</v>
       </c>
       <c r="U22" s="0">
-        <v>23.300264679933338</v>
+        <v>4.8186859457390758</v>
       </c>
       <c r="V22" s="0">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="W22" s="0">
         <v>4.8186859457390758</v>
@@ -1809,64 +1854,66 @@
       <c r="A23" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="0"/>
+      <c r="B23" s="0">
+        <v>0.050000000000000003</v>
+      </c>
       <c r="C23" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D23" s="0">
+        <v>20240103</v>
       </c>
       <c r="E23" s="0">
-        <v>3</v>
-      </c>
-      <c r="F23" s="0">
-        <v>20240103</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F23" s="0"/>
       <c r="G23" s="0">
-        <v>2</v>
-      </c>
-      <c r="H23" s="0"/>
-      <c r="I23" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H23" s="0">
+        <v>45</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="J23" s="0">
-        <v>45</v>
-      </c>
-      <c r="K23" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="0">
+        <v>4</v>
+      </c>
+      <c r="L23" s="0">
+        <v>0.056852027489509627</v>
+      </c>
+      <c r="M23" s="0">
+        <v>2786.5714890696991</v>
+      </c>
+      <c r="N23" s="0">
+        <v>2780.5900000000001</v>
+      </c>
+      <c r="O23" s="0">
+        <v>158.42223889807431</v>
+      </c>
+      <c r="P23" s="0">
+        <v>1.0467853195765113</v>
+      </c>
+      <c r="Q23" s="0">
+        <v>1.0368200000000001</v>
+      </c>
+      <c r="R23" s="0">
+        <v>0.15061167263382949</v>
+      </c>
+      <c r="S23" s="0">
+        <v>22.330751887069894</v>
+      </c>
+      <c r="T23" s="0">
         <v>22</v>
       </c>
-      <c r="L23" s="0">
-        <v>3</v>
-      </c>
-      <c r="M23" s="0">
-        <v>4</v>
-      </c>
-      <c r="N23" s="0">
-        <v>0.056852027489509627</v>
-      </c>
-      <c r="O23" s="0">
-        <v>2786.5714890696991</v>
-      </c>
-      <c r="P23" s="0">
-        <v>2780.5900000000001</v>
-      </c>
-      <c r="Q23" s="0">
-        <v>158.42223889807431</v>
-      </c>
-      <c r="R23" s="0">
-        <v>1.0467853195765113</v>
-      </c>
-      <c r="S23" s="0">
-        <v>1.0368200000000001</v>
-      </c>
-      <c r="T23" s="0">
-        <v>0.15061167263382949</v>
-      </c>
       <c r="U23" s="0">
-        <v>22.330751887069894</v>
+        <v>4.6968496234807002</v>
       </c>
       <c r="V23" s="0">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="W23" s="0">
         <v>4.6968496234807002</v>
@@ -1879,64 +1926,66 @@
       <c r="A24" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="0"/>
+      <c r="B24" s="0">
+        <v>0.080000000000000002</v>
+      </c>
       <c r="C24" s="0">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D24" s="0">
+        <v>20240103</v>
       </c>
       <c r="E24" s="0">
-        <v>3</v>
-      </c>
-      <c r="F24" s="0">
-        <v>20240103</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F24" s="0"/>
       <c r="G24" s="0">
-        <v>1</v>
-      </c>
-      <c r="H24" s="0"/>
-      <c r="I24" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H24" s="0">
+        <v>45</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="J24" s="0">
-        <v>45</v>
-      </c>
-      <c r="K24" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="0">
+        <v>4</v>
+      </c>
+      <c r="L24" s="0">
+        <v>0.057318051932163265</v>
+      </c>
+      <c r="M24" s="0">
+        <v>2453.0091706695403</v>
+      </c>
+      <c r="N24" s="0">
+        <v>2448.3600000000001</v>
+      </c>
+      <c r="O24" s="0">
+        <v>140.60170703450945</v>
+      </c>
+      <c r="P24" s="0">
+        <v>1.0496696692481131</v>
+      </c>
+      <c r="Q24" s="0">
+        <v>1.0426299999999999</v>
+      </c>
+      <c r="R24" s="0">
+        <v>0.14420835644709615</v>
+      </c>
+      <c r="S24" s="0">
+        <v>23.536516027840406</v>
+      </c>
+      <c r="T24" s="0">
         <v>23</v>
       </c>
-      <c r="L24" s="0">
-        <v>3</v>
-      </c>
-      <c r="M24" s="0">
-        <v>4</v>
-      </c>
-      <c r="N24" s="0">
-        <v>0.057318051932163265</v>
-      </c>
-      <c r="O24" s="0">
-        <v>2453.0091706695403</v>
-      </c>
-      <c r="P24" s="0">
-        <v>2448.3600000000001</v>
-      </c>
-      <c r="Q24" s="0">
-        <v>140.60170703450945</v>
-      </c>
-      <c r="R24" s="0">
-        <v>1.0496696692481131</v>
-      </c>
-      <c r="S24" s="0">
-        <v>1.0426299999999999</v>
-      </c>
-      <c r="T24" s="0">
-        <v>0.14420835644709615</v>
-      </c>
       <c r="U24" s="0">
-        <v>23.536516027840406</v>
+        <v>4.7871831311676525</v>
       </c>
       <c r="V24" s="0">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="W24" s="0">
         <v>4.7871831311676525</v>
@@ -1949,64 +1998,66 @@
       <c r="A25" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="0"/>
+      <c r="B25" s="0">
+        <v>0.080000000000000002</v>
+      </c>
       <c r="C25" s="0">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D25" s="0">
+        <v>20240103</v>
       </c>
       <c r="E25" s="0">
-        <v>3</v>
-      </c>
-      <c r="F25" s="0">
-        <v>20240103</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F25" s="0"/>
       <c r="G25" s="0">
-        <v>2</v>
-      </c>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H25" s="0">
+        <v>45</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="J25" s="0">
-        <v>45</v>
-      </c>
-      <c r="K25" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="0">
+        <v>4</v>
+      </c>
+      <c r="L25" s="0">
+        <v>0.056350107130480859</v>
+      </c>
+      <c r="M25" s="0">
+        <v>2416.8173012449761</v>
+      </c>
+      <c r="N25" s="0">
+        <v>2412.8699999999999</v>
+      </c>
+      <c r="O25" s="0">
+        <v>136.18791383995404</v>
+      </c>
+      <c r="P25" s="0">
+        <v>1.0543100503872178</v>
+      </c>
+      <c r="Q25" s="0">
+        <v>1.0467500000000001</v>
+      </c>
+      <c r="R25" s="0">
+        <v>0.14112422184189227</v>
+      </c>
+      <c r="S25" s="0">
+        <v>24.406724830898931</v>
+      </c>
+      <c r="T25" s="0">
         <v>24</v>
       </c>
-      <c r="L25" s="0">
-        <v>3</v>
-      </c>
-      <c r="M25" s="0">
-        <v>4</v>
-      </c>
-      <c r="N25" s="0">
-        <v>0.056350107130480859</v>
-      </c>
-      <c r="O25" s="0">
-        <v>2416.8173012449761</v>
-      </c>
-      <c r="P25" s="0">
-        <v>2412.8699999999999</v>
-      </c>
-      <c r="Q25" s="0">
-        <v>136.18791383995404</v>
-      </c>
-      <c r="R25" s="0">
-        <v>1.0543100503872178</v>
-      </c>
-      <c r="S25" s="0">
-        <v>1.0467500000000001</v>
-      </c>
-      <c r="T25" s="0">
-        <v>0.14112422184189227</v>
-      </c>
       <c r="U25" s="0">
-        <v>24.406724830898931</v>
+        <v>4.8540007622235377</v>
       </c>
       <c r="V25" s="0">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="W25" s="0">
         <v>4.8540007622235377</v>
@@ -2019,64 +2070,66 @@
       <c r="A26" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="0"/>
+      <c r="B26" s="0">
+        <v>0.11</v>
+      </c>
       <c r="C26" s="0">
-        <v>0.11</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D26" s="0">
+        <v>20240103</v>
       </c>
       <c r="E26" s="0">
-        <v>3</v>
-      </c>
-      <c r="F26" s="0">
-        <v>20240103</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F26" s="0"/>
       <c r="G26" s="0">
-        <v>1</v>
-      </c>
-      <c r="H26" s="0"/>
-      <c r="I26" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H26" s="0">
+        <v>45</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="J26" s="0">
-        <v>45</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="K26" s="0">
+        <v>4</v>
       </c>
       <c r="L26" s="0">
-        <v>3</v>
+        <v>0.039975675518970119</v>
       </c>
       <c r="M26" s="0">
-        <v>4</v>
+        <v>2112.2887275757303</v>
       </c>
       <c r="N26" s="0">
-        <v>0.039975675518970119</v>
+        <v>2108.4099999999999</v>
       </c>
       <c r="O26" s="0">
-        <v>2112.2887275757303</v>
+        <v>84.440168775945665</v>
       </c>
       <c r="P26" s="0">
-        <v>2108.4099999999999</v>
+        <v>1.0839926029800997</v>
       </c>
       <c r="Q26" s="0">
-        <v>84.440168775945665</v>
+        <v>1.07877</v>
       </c>
       <c r="R26" s="0">
-        <v>1.0839926029800997</v>
+        <v>0.15969372025415704</v>
       </c>
       <c r="S26" s="0">
-        <v>1.07877</v>
+        <v>24.092343887854131</v>
       </c>
       <c r="T26" s="0">
-        <v>0.15969372025415704</v>
+        <v>24</v>
       </c>
       <c r="U26" s="0">
-        <v>24.092343887854131</v>
+        <v>4.9348998446006425</v>
       </c>
       <c r="V26" s="0">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="W26" s="0">
         <v>4.9348998446006425</v>
@@ -2089,64 +2142,66 @@
       <c r="A27" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="0"/>
+      <c r="B27" s="0">
+        <v>0.11</v>
+      </c>
       <c r="C27" s="0">
-        <v>0.11</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D27" s="0">
+        <v>20240103</v>
       </c>
       <c r="E27" s="0">
-        <v>3</v>
-      </c>
-      <c r="F27" s="0">
-        <v>20240103</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F27" s="0"/>
       <c r="G27" s="0">
-        <v>2</v>
-      </c>
-      <c r="H27" s="0"/>
-      <c r="I27" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H27" s="0">
+        <v>45</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="J27" s="0">
-        <v>45</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="K27" s="0">
+        <v>4</v>
       </c>
       <c r="L27" s="0">
-        <v>3</v>
+        <v>0.041479969786458001</v>
       </c>
       <c r="M27" s="0">
-        <v>4</v>
+        <v>2082.6984079992194</v>
       </c>
       <c r="N27" s="0">
-        <v>0.041479969786458001</v>
+        <v>2083.5900000000001</v>
       </c>
       <c r="O27" s="0">
-        <v>2082.6984079992194</v>
+        <v>86.390267038111801</v>
       </c>
       <c r="P27" s="0">
-        <v>2083.5900000000001</v>
+        <v>1.079907944907363</v>
       </c>
       <c r="Q27" s="0">
-        <v>86.390267038111801</v>
+        <v>1.0702100000000001</v>
       </c>
       <c r="R27" s="0">
-        <v>1.079907944907363</v>
+        <v>0.15796929492997194</v>
       </c>
       <c r="S27" s="0">
-        <v>1.0702100000000001</v>
+        <v>21.668267816880697</v>
       </c>
       <c r="T27" s="0">
-        <v>0.15796929492997194</v>
+        <v>22</v>
       </c>
       <c r="U27" s="0">
-        <v>21.668267816880697</v>
+        <v>4.6519805848684195</v>
       </c>
       <c r="V27" s="0">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="W27" s="0">
         <v>4.6519805848684195</v>
@@ -2159,64 +2214,66 @@
       <c r="A28" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="0"/>
+      <c r="B28" s="0">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="C28" s="0">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D28" s="0">
+        <v>20240103</v>
       </c>
       <c r="E28" s="0">
-        <v>3</v>
-      </c>
-      <c r="F28" s="0">
-        <v>20240103</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F28" s="0"/>
       <c r="G28" s="0">
-        <v>1</v>
-      </c>
-      <c r="H28" s="0"/>
-      <c r="I28" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H28" s="0">
+        <v>45</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="J28" s="0">
-        <v>45</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="K28" s="0">
+        <v>4</v>
       </c>
       <c r="L28" s="0">
-        <v>3</v>
+        <v>0.035993016002545564</v>
       </c>
       <c r="M28" s="0">
-        <v>4</v>
+        <v>1783.3311028330568</v>
       </c>
       <c r="N28" s="0">
-        <v>0.035993016002545564</v>
+        <v>1782.8</v>
       </c>
       <c r="O28" s="0">
-        <v>1783.3311028330568</v>
+        <v>64.187464922107438</v>
       </c>
       <c r="P28" s="0">
-        <v>1782.8</v>
+        <v>1.0811530192138039</v>
       </c>
       <c r="Q28" s="0">
-        <v>64.187464922107438</v>
+        <v>1.07301</v>
       </c>
       <c r="R28" s="0">
-        <v>1.0811530192138039</v>
+        <v>0.16340890564928304</v>
       </c>
       <c r="S28" s="0">
-        <v>1.07301</v>
+        <v>21.596804234878935</v>
       </c>
       <c r="T28" s="0">
-        <v>0.16340890564928304</v>
+        <v>21</v>
       </c>
       <c r="U28" s="0">
-        <v>21.596804234878935</v>
+        <v>4.6028620233167938</v>
       </c>
       <c r="V28" s="0">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="W28" s="0">
         <v>4.6028620233167938</v>
@@ -2229,64 +2286,66 @@
       <c r="A29" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="0"/>
+      <c r="B29" s="0">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="C29" s="0">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D29" s="0">
+        <v>20240103</v>
       </c>
       <c r="E29" s="0">
-        <v>3</v>
-      </c>
-      <c r="F29" s="0">
-        <v>20240103</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F29" s="0"/>
       <c r="G29" s="0">
-        <v>2</v>
-      </c>
-      <c r="H29" s="0"/>
-      <c r="I29" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H29" s="0">
+        <v>45</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="J29" s="0">
-        <v>45</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="K29" s="0">
+        <v>4</v>
       </c>
       <c r="L29" s="0">
-        <v>3</v>
+        <v>0.036051724722829144</v>
       </c>
       <c r="M29" s="0">
-        <v>4</v>
+        <v>1778.3547299284378</v>
       </c>
       <c r="N29" s="0">
-        <v>0.036051724722829144</v>
+        <v>1779.3800000000001</v>
       </c>
       <c r="O29" s="0">
-        <v>1778.3547299284378</v>
+        <v>64.112755182921205</v>
       </c>
       <c r="P29" s="0">
-        <v>1779.3800000000001</v>
+        <v>1.089260120968532</v>
       </c>
       <c r="Q29" s="0">
-        <v>64.112755182921205</v>
+        <v>1.07959</v>
       </c>
       <c r="R29" s="0">
-        <v>1.089260120968532</v>
+        <v>0.16104869170267058</v>
       </c>
       <c r="S29" s="0">
-        <v>1.07959</v>
+        <v>24.012253700617588</v>
       </c>
       <c r="T29" s="0">
-        <v>0.16104869170267058</v>
+        <v>24</v>
       </c>
       <c r="U29" s="0">
-        <v>24.012253700617588</v>
+        <v>4.8269207117571939</v>
       </c>
       <c r="V29" s="0">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="W29" s="0">
         <v>4.8269207117571939</v>
@@ -2299,64 +2358,66 @@
       <c r="A30" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="0"/>
+      <c r="B30" s="0">
+        <v>0.17000000000000001</v>
+      </c>
       <c r="C30" s="0">
-        <v>0.17000000000000001</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D30" s="0">
+        <v>20240103</v>
       </c>
       <c r="E30" s="0">
-        <v>3</v>
-      </c>
-      <c r="F30" s="0">
-        <v>20240103</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F30" s="0"/>
       <c r="G30" s="0">
-        <v>1</v>
-      </c>
-      <c r="H30" s="0"/>
-      <c r="I30" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H30" s="0">
+        <v>45</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="J30" s="0">
-        <v>45</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="K30" s="0">
+        <v>4</v>
       </c>
       <c r="L30" s="0">
-        <v>3</v>
+        <v>0.04079613574512115</v>
       </c>
       <c r="M30" s="0">
-        <v>4</v>
+        <v>1610.9555229879415</v>
       </c>
       <c r="N30" s="0">
-        <v>0.04079613574512115</v>
+        <v>1608.5899999999999</v>
       </c>
       <c r="O30" s="0">
-        <v>1610.9555229879415</v>
+        <v>65.720760195168694</v>
       </c>
       <c r="P30" s="0">
-        <v>1608.5899999999999</v>
+        <v>1.0475569184393687</v>
       </c>
       <c r="Q30" s="0">
-        <v>65.720760195168694</v>
+        <v>1.04071</v>
       </c>
       <c r="R30" s="0">
-        <v>1.0475569184393687</v>
+        <v>0.15109318593530618</v>
       </c>
       <c r="S30" s="0">
-        <v>1.04071</v>
+        <v>25.864719145181844</v>
       </c>
       <c r="T30" s="0">
-        <v>0.15109318593530618</v>
+        <v>26</v>
       </c>
       <c r="U30" s="0">
-        <v>25.864719145181844</v>
+        <v>5.0976475968433439</v>
       </c>
       <c r="V30" s="0">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="W30" s="0">
         <v>5.0976475968433439</v>
@@ -2369,64 +2430,66 @@
       <c r="A31" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="0"/>
+      <c r="B31" s="0">
+        <v>0.17000000000000001</v>
+      </c>
       <c r="C31" s="0">
-        <v>0.17000000000000001</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D31" s="0">
+        <v>20240103</v>
       </c>
       <c r="E31" s="0">
-        <v>3</v>
-      </c>
-      <c r="F31" s="0">
-        <v>20240103</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F31" s="0"/>
       <c r="G31" s="0">
-        <v>2</v>
-      </c>
-      <c r="H31" s="0"/>
-      <c r="I31" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H31" s="0">
+        <v>45</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="J31" s="0">
-        <v>45</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="K31" s="0">
+        <v>4</v>
       </c>
       <c r="L31" s="0">
-        <v>3</v>
+        <v>0.039116907045993937</v>
       </c>
       <c r="M31" s="0">
-        <v>4</v>
+        <v>1613.2334947554159</v>
       </c>
       <c r="N31" s="0">
-        <v>0.039116907045993937</v>
+        <v>1611.1900000000001</v>
       </c>
       <c r="O31" s="0">
-        <v>1613.2334947554159</v>
+        <v>63.104704657831554</v>
       </c>
       <c r="P31" s="0">
-        <v>1611.1900000000001</v>
+        <v>1.0608167630624439</v>
       </c>
       <c r="Q31" s="0">
-        <v>63.104704657831554</v>
+        <v>1.05006</v>
       </c>
       <c r="R31" s="0">
-        <v>1.0608167630624439</v>
+        <v>0.15730457209423579</v>
       </c>
       <c r="S31" s="0">
-        <v>1.05006</v>
+        <v>24.075972943829036</v>
       </c>
       <c r="T31" s="0">
-        <v>0.15730457209423579</v>
+        <v>24</v>
       </c>
       <c r="U31" s="0">
-        <v>24.075972943829036</v>
+        <v>4.8449703146516869</v>
       </c>
       <c r="V31" s="0">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="W31" s="0">
         <v>4.8449703146516869</v>
@@ -2439,64 +2502,66 @@
       <c r="A32" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="0"/>
+      <c r="B32" s="0">
+        <v>0.20000000000000001</v>
+      </c>
       <c r="C32" s="0">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D32" s="0">
+        <v>20240103</v>
       </c>
       <c r="E32" s="0">
-        <v>3</v>
-      </c>
-      <c r="F32" s="0">
-        <v>20240103</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F32" s="0"/>
       <c r="G32" s="0">
-        <v>1</v>
-      </c>
-      <c r="H32" s="0"/>
-      <c r="I32" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H32" s="0">
+        <v>45</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="J32" s="0">
-        <v>45</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="K32" s="0">
+        <v>4</v>
       </c>
       <c r="L32" s="0">
-        <v>3</v>
+        <v>0.038744459394000216</v>
       </c>
       <c r="M32" s="0">
-        <v>4</v>
+        <v>1395.3946152338006</v>
       </c>
       <c r="N32" s="0">
-        <v>0.038744459394000216</v>
+        <v>1394.74</v>
       </c>
       <c r="O32" s="0">
-        <v>1395.3946152338006</v>
+        <v>54.063810008532542</v>
       </c>
       <c r="P32" s="0">
-        <v>1394.74</v>
+        <v>1.0780447891383202</v>
       </c>
       <c r="Q32" s="0">
-        <v>54.063810008532542</v>
+        <v>1.06847</v>
       </c>
       <c r="R32" s="0">
-        <v>1.0780447891383202</v>
+        <v>0.16114528902867026</v>
       </c>
       <c r="S32" s="0">
-        <v>1.06847</v>
+        <v>24.608959905891581</v>
       </c>
       <c r="T32" s="0">
-        <v>0.16114528902867026</v>
+        <v>24</v>
       </c>
       <c r="U32" s="0">
-        <v>24.608959905891581</v>
+        <v>4.8895561074500495</v>
       </c>
       <c r="V32" s="0">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="W32" s="0">
         <v>4.8895561074500495</v>
@@ -2509,64 +2574,66 @@
       <c r="A33" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="0"/>
+      <c r="B33" s="0">
+        <v>0.20000000000000001</v>
+      </c>
       <c r="C33" s="0">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D33" s="0">
+        <v>20240103</v>
       </c>
       <c r="E33" s="0">
-        <v>3</v>
-      </c>
-      <c r="F33" s="0">
-        <v>20240103</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F33" s="0"/>
       <c r="G33" s="0">
-        <v>2</v>
-      </c>
-      <c r="H33" s="0"/>
-      <c r="I33" s="0">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="H33" s="0">
+        <v>45</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="J33" s="0">
-        <v>45</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="K33" s="0">
+        <v>4</v>
       </c>
       <c r="L33" s="0">
-        <v>3</v>
+        <v>0.038071682906671594</v>
       </c>
       <c r="M33" s="0">
-        <v>4</v>
+        <v>1402.2179227526722</v>
       </c>
       <c r="N33" s="0">
-        <v>0.038071682906671594</v>
+        <v>1402.04</v>
       </c>
       <c r="O33" s="0">
-        <v>1402.2179227526722</v>
+        <v>53.384796121091462</v>
       </c>
       <c r="P33" s="0">
-        <v>1402.04</v>
+        <v>1.0858992055680798</v>
       </c>
       <c r="Q33" s="0">
-        <v>53.384796121091462</v>
+        <v>1.0714600000000001</v>
       </c>
       <c r="R33" s="0">
-        <v>1.0858992055680798</v>
+        <v>0.16269800923346775</v>
       </c>
       <c r="S33" s="0">
-        <v>1.0714600000000001</v>
+        <v>24.517498284481913</v>
       </c>
       <c r="T33" s="0">
-        <v>0.16269800923346775</v>
+        <v>24</v>
       </c>
       <c r="U33" s="0">
-        <v>24.517498284481913</v>
+        <v>4.8772292696416173</v>
       </c>
       <c r="V33" s="0">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="W33" s="0">
         <v>4.8772292696416173</v>
